--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_238.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_238.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,282 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (13.48, 20.96)]</t>
+          <t>[('0:00:01.540000', '0:00:06.880000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.6, 32.34)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.76, 53.02)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.02, 25.14), (49.08, 57.84), (1.44, 6.84)]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:01:08.660000', '0:01:19.220000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.119815668202765</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'D/5', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2687747035573123</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'A/b7']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
+          <t>[('0:00:09.240000', '0:00:17.720000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>[('0:00:20.420000', '0:00:23.500000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.07146401985111663</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#']]</t>
-        </is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(87.2, 97.22)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:36.260000', '0:01:47.180000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:41.320000', '0:00:49.380000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(96.26, 107.18)]</t>
+          <t>[['A#:min/F', 'F:7', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(35.22, 42.42)]</t>
+          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:01:24.620000', '0:01:31.740000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
@@ -753,452 +772,396 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4642857142857143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7/D', 'C:min']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.36, 7.14)]</t>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(20.58, 32.5)]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(40.08, 42.28)]</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:23.420000', '0:01:45.160000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_64</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4583333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[['A', 'D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(8.26, 12.96), (0.36, 5.06)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:02:02.780000', '0:02:17.555000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.2461538461538462</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[('0:01:06.100000', '0:01:24.780000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
+          <t>[('0:02:00.220000', '0:02:01.920000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.36, 50.36)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(42.44, 44.36)]</t>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1229096989966555</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.811411149825784</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/4', 'E/4', 'A', 'A', 'D/5', 'A', 'D/5', 'A', 'D/5', 'E/4', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(45.48, 48.0)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D', 'G', 'D', 'G', 'A', 'D', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.142059)]</t>
+          <t>[('0:02:44.130000', '0:03:13.674000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
+          <t>[('0:00:17.965212', '0:01:23.364215')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1319148936170213</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_57</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_145</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4526315789473684</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G', 'C', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(118.44, 121.68)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[('0:02:15.687550', '0:02:19.228594')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[('0:02:23.580000', '0:02:29.120000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj', 'D:min']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.58, 14.88)]</t>
+          <t>[('0:01:20.920000', '0:01:29.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['A#:maj', 'A:(3,5,b9)/A#', 'A#:maj', 'E:(3,b5,b9)/A#', 'A:maj/A#', 'A#:maj', 'A:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.36, 122.64)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(10.76, 23.6), (47.14, 55.2), (0.36, 5.6)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:02:38.280000', '0:02:43.560000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
